--- a/top_workers_2018.xlsx
+++ b/top_workers_2018.xlsx
@@ -3042,13 +3042,13 @@
         <v>241</v>
       </c>
       <c r="B4">
-        <v>8.474774774774774</v>
+        <v>7.720147722609766</v>
       </c>
       <c r="C4">
-        <v>25.66213367446632</v>
+        <v>24.61117282643761</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>462</v>
@@ -3059,13 +3059,13 @@
         <v>212</v>
       </c>
       <c r="B5">
-        <v>10.98610421836228</v>
+        <v>9.564071545839454</v>
       </c>
       <c r="C5">
-        <v>79.2721524318538</v>
+        <v>74.05573367141302</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>7540</v>
@@ -3076,13 +3076,13 @@
         <v>242</v>
       </c>
       <c r="B6">
-        <v>6.545248599022297</v>
+        <v>5.342059166991047</v>
       </c>
       <c r="C6">
-        <v>35.24612039474125</v>
+        <v>31.94259550344402</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1674</v>
@@ -3093,13 +3093,13 @@
         <v>243</v>
       </c>
       <c r="B7">
-        <v>8.456996745699675</v>
+        <v>6.836151822623074</v>
       </c>
       <c r="C7">
-        <v>31.34615270483563</v>
+        <v>28.37738802640231</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>597</v>
@@ -3110,13 +3110,13 @@
         <v>244</v>
       </c>
       <c r="B8">
-        <v>11.20240564081294</v>
+        <v>10.29502572898799</v>
       </c>
       <c r="C8">
-        <v>67.12256550102067</v>
+        <v>64.41877042646821</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>3553</v>
@@ -3127,13 +3127,13 @@
         <v>245</v>
       </c>
       <c r="B9">
-        <v>4.746166950596252</v>
+        <v>4.597359735973598</v>
       </c>
       <c r="C9">
-        <v>28.06217001547135</v>
+        <v>27.63077174294595</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>833</v>
@@ -3144,13 +3144,13 @@
         <v>246</v>
       </c>
       <c r="B10">
-        <v>7.541951664386685</v>
+        <v>7.090889603429797</v>
       </c>
       <c r="C10">
-        <v>35.2382565925709</v>
+        <v>34.21481259800598</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1599</v>
@@ -3161,13 +3161,13 @@
         <v>247</v>
       </c>
       <c r="B11">
-        <v>7.712931618144888</v>
+        <v>6.925227963525836</v>
       </c>
       <c r="C11">
-        <v>35.11151691287102</v>
+        <v>33.35109444429535</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>675</v>
@@ -3178,13 +3178,13 @@
         <v>248</v>
       </c>
       <c r="B12">
-        <v>10.55004633920297</v>
+        <v>9.557934508816121</v>
       </c>
       <c r="C12">
-        <v>47.01971935134416</v>
+        <v>44.85919688497517</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>863</v>
@@ -3195,13 +3195,13 @@
         <v>249</v>
       </c>
       <c r="B13">
-        <v>9.071897073662967</v>
+        <v>6.435973154362416</v>
       </c>
       <c r="C13">
-        <v>45.90981640586896</v>
+        <v>38.88711379577644</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>2833</v>
@@ -3212,13 +3212,13 @@
         <v>250</v>
       </c>
       <c r="B14">
-        <v>14.07856135401975</v>
+        <v>9.939952200756821</v>
       </c>
       <c r="C14">
-        <v>81.46137142687704</v>
+        <v>68.74708442174172</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>2789</v>
@@ -3229,13 +3229,13 @@
         <v>220</v>
       </c>
       <c r="B15">
-        <v>12.24421481589288</v>
+        <v>10.56776786835825</v>
       </c>
       <c r="C15">
-        <v>92.51492991557471</v>
+        <v>86.05059696098033</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>5200</v>
@@ -3246,13 +3246,13 @@
         <v>251</v>
       </c>
       <c r="B16">
-        <v>16.65586368192449</v>
+        <v>15.92429324389075</v>
       </c>
       <c r="C16">
-        <v>98.85524135517183</v>
+        <v>96.71976756020766</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>2993</v>
@@ -3263,13 +3263,13 @@
         <v>252</v>
       </c>
       <c r="B17">
-        <v>10.98421052631579</v>
+        <v>7.853844589096827</v>
       </c>
       <c r="C17">
-        <v>68.05906070757416</v>
+        <v>57.76171502984786</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>2483</v>
@@ -3280,13 +3280,13 @@
         <v>253</v>
       </c>
       <c r="B18">
-        <v>8.040671217292378</v>
+        <v>7.655293799079339</v>
       </c>
       <c r="C18">
-        <v>37.27025281772306</v>
+        <v>36.40643549202009</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1517</v>
@@ -3297,13 +3297,13 @@
         <v>221</v>
       </c>
       <c r="B19">
-        <v>10.75957997412163</v>
+        <v>9.660401245140823</v>
       </c>
       <c r="C19">
-        <v>68.30823624553037</v>
+        <v>64.80706176662127</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>4806</v>
@@ -3314,13 +3314,13 @@
         <v>254</v>
       </c>
       <c r="B20">
-        <v>11.46251588310038</v>
+        <v>9.576433121019109</v>
       </c>
       <c r="C20">
-        <v>60.22373092213203</v>
+        <v>55.20472954849151</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1221</v>
@@ -3331,13 +3331,13 @@
         <v>255</v>
       </c>
       <c r="B21">
-        <v>12.1756434699714</v>
+        <v>9.016766678432758</v>
       </c>
       <c r="C21">
-        <v>64.29754455665963</v>
+        <v>55.58805087841852</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>3079</v>
@@ -3348,13 +3348,13 @@
         <v>256</v>
       </c>
       <c r="B22">
-        <v>10.38059899284389</v>
+        <v>7.822248851607749</v>
       </c>
       <c r="C22">
-        <v>41.77751714084281</v>
+        <v>36.53954288797592</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1047</v>
@@ -3365,13 +3365,13 @@
         <v>257</v>
       </c>
       <c r="B23">
-        <v>9.116245831348261</v>
+        <v>8.326805918189731</v>
       </c>
       <c r="C23">
-        <v>66.1374757514141</v>
+        <v>63.25968195647535</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>2331</v>
@@ -3382,13 +3382,13 @@
         <v>258</v>
       </c>
       <c r="B24">
-        <v>11.57086092715232</v>
+        <v>10.17763157894737</v>
       </c>
       <c r="C24">
-        <v>70.05824304071078</v>
+        <v>65.8127196586987</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>3493</v>
@@ -3399,13 +3399,13 @@
         <v>259</v>
       </c>
       <c r="B25">
-        <v>10.37520518713066</v>
+        <v>8.525188831939573</v>
       </c>
       <c r="C25">
-        <v>57.85093074728706</v>
+        <v>52.59013705111021</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>2811</v>
@@ -3416,13 +3416,13 @@
         <v>208</v>
       </c>
       <c r="B26">
-        <v>10.09672325305961</v>
+        <v>9.241577718478986</v>
       </c>
       <c r="C26">
-        <v>77.52911741693852</v>
+        <v>74.22651949435618</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>13007</v>
@@ -3433,13 +3433,13 @@
         <v>260</v>
       </c>
       <c r="B27">
-        <v>10.08627818512597</v>
+        <v>8.187920964890688</v>
       </c>
       <c r="C27">
-        <v>66.92041031548204</v>
+        <v>60.4234179295923</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>3518</v>
@@ -3450,13 +3450,13 @@
         <v>261</v>
       </c>
       <c r="B28">
-        <v>8.090655554826432</v>
+        <v>6.526746248114131</v>
       </c>
       <c r="C28">
-        <v>47.08466275099251</v>
+        <v>42.41021288915258</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>2848</v>
@@ -3467,13 +3467,13 @@
         <v>223</v>
       </c>
       <c r="B29">
-        <v>11.36769024038222</v>
+        <v>10.00793059632826</v>
       </c>
       <c r="C29">
-        <v>62.49934401587022</v>
+        <v>58.75811113132429</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>4668</v>
@@ -3484,13 +3484,13 @@
         <v>262</v>
       </c>
       <c r="B30">
-        <v>9.513194367446502</v>
+        <v>7.43238911988912</v>
       </c>
       <c r="C30">
-        <v>48.98097382049568</v>
+        <v>43.47206104846294</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>3055</v>
@@ -3501,13 +3501,13 @@
         <v>263</v>
       </c>
       <c r="B31">
-        <v>11.9062543921293</v>
+        <v>8.971933912306715</v>
       </c>
       <c r="C31">
-        <v>60.98754172968348</v>
+        <v>53.18871157022783</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1986</v>
@@ -3518,13 +3518,13 @@
         <v>222</v>
       </c>
       <c r="B32">
-        <v>12.1694895725314</v>
+        <v>8.505314865517796</v>
       </c>
       <c r="C32">
-        <v>70.70792694946897</v>
+        <v>59.37422330665724</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>4766</v>
@@ -3535,13 +3535,13 @@
         <v>264</v>
       </c>
       <c r="B33">
-        <v>8.329978813559322</v>
+        <v>7.418396226415094</v>
       </c>
       <c r="C33">
-        <v>34.71223376081442</v>
+        <v>32.8607004122337</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>1513</v>
@@ -3552,13 +3552,13 @@
         <v>265</v>
       </c>
       <c r="B34">
-        <v>12.75191649958722</v>
+        <v>11.09471037914935</v>
       </c>
       <c r="C34">
-        <v>74.03706673587891</v>
+        <v>69.19160314554968</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>3145</v>
@@ -3569,13 +3569,13 @@
         <v>266</v>
       </c>
       <c r="B35">
-        <v>11.40718181818182</v>
+        <v>10.75227077977721</v>
       </c>
       <c r="C35">
-        <v>68.9150112367731</v>
+        <v>66.95992384034523</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>2882</v>
@@ -3586,13 +3586,13 @@
         <v>219</v>
       </c>
       <c r="B36">
-        <v>12.9827018121911</v>
+        <v>10.92995839112344</v>
       </c>
       <c r="C36">
-        <v>76.6437848962466</v>
+        <v>70.48298427721058</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>5446</v>
@@ -3603,13 +3603,13 @@
         <v>230</v>
       </c>
       <c r="B37">
-        <v>10.91629551402727</v>
+        <v>9.776946169346548</v>
       </c>
       <c r="C37">
-        <v>75.17154056500158</v>
+        <v>71.2186642047435</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>4202</v>
@@ -3620,13 +3620,13 @@
         <v>267</v>
       </c>
       <c r="B38">
-        <v>11.65506706408346</v>
+        <v>7.081265845708077</v>
       </c>
       <c r="C38">
-        <v>63.121573043525</v>
+        <v>49.52856808764033</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>2615</v>
@@ -3637,13 +3637,13 @@
         <v>232</v>
       </c>
       <c r="B39">
-        <v>10.53083345025958</v>
+        <v>9.414312145253849</v>
       </c>
       <c r="C39">
-        <v>58.93951191165471</v>
+        <v>55.82161656507999</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>3962</v>
@@ -3654,13 +3654,13 @@
         <v>268</v>
       </c>
       <c r="B40">
-        <v>9.01956099746155</v>
+        <v>6.646932599724897</v>
       </c>
       <c r="C40">
-        <v>35.49210412632472</v>
+        <v>30.72583421518481</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>1681</v>
@@ -3671,13 +3671,13 @@
         <v>229</v>
       </c>
       <c r="B41">
-        <v>10.35694975950567</v>
+        <v>8.436681347594806</v>
       </c>
       <c r="C41">
-        <v>70.827142335541</v>
+        <v>64.05122121627768</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>4331</v>
@@ -3688,13 +3688,13 @@
         <v>226</v>
       </c>
       <c r="B42">
-        <v>6.533722387592041</v>
+        <v>5.616234050432616</v>
       </c>
       <c r="C42">
-        <v>42.77523592717819</v>
+        <v>39.72315839540256</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>4382</v>
@@ -3705,13 +3705,13 @@
         <v>269</v>
       </c>
       <c r="B43">
-        <v>12.36310151036179</v>
+        <v>10.40968576709797</v>
       </c>
       <c r="C43">
-        <v>60.35839477138029</v>
+        <v>55.56797887175743</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>1944</v>
@@ -3722,13 +3722,13 @@
         <v>270</v>
       </c>
       <c r="B44">
-        <v>11.3844714686623</v>
+        <v>7.143416161220896</v>
       </c>
       <c r="C44">
-        <v>44.26773356967652</v>
+        <v>35.4932310074623</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>1029</v>
@@ -3739,13 +3739,13 @@
         <v>227</v>
       </c>
       <c r="B45">
-        <v>13.1941181336863</v>
+        <v>11.46423950546291</v>
       </c>
       <c r="C45">
-        <v>74.92896049687074</v>
+        <v>69.98613250798171</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>4363</v>
@@ -3756,13 +3756,13 @@
         <v>271</v>
       </c>
       <c r="B46">
-        <v>11.15819988956378</v>
+        <v>8.653249116796918</v>
       </c>
       <c r="C46">
-        <v>61.42199201802189</v>
+        <v>54.28952462204994</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>2668</v>
@@ -3773,13 +3773,13 @@
         <v>272</v>
       </c>
       <c r="B47">
-        <v>11.69964471166985</v>
+        <v>9.939400975156722</v>
       </c>
       <c r="C47">
-        <v>53.74487058053287</v>
+        <v>49.71291594974849</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>1745</v>
@@ -3790,13 +3790,13 @@
         <v>273</v>
       </c>
       <c r="B48">
-        <v>13.39646643109541</v>
+        <v>11.13912149258117</v>
       </c>
       <c r="C48">
-        <v>79.55950286028219</v>
+        <v>72.71953219872276</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>2894</v>
@@ -3807,13 +3807,13 @@
         <v>218</v>
       </c>
       <c r="B49">
-        <v>13.66502515790601</v>
+        <v>12.1810287241149</v>
       </c>
       <c r="C49">
-        <v>95.42979799387577</v>
+        <v>90.19891148558715</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>5517</v>
@@ -3824,13 +3824,13 @@
         <v>274</v>
       </c>
       <c r="B50">
-        <v>14.37135517911691</v>
+        <v>12.57242635894321</v>
       </c>
       <c r="C50">
-        <v>73.99906579549734</v>
+        <v>69.3757847299612</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>2184</v>
@@ -3841,13 +3841,13 @@
         <v>275</v>
       </c>
       <c r="B51">
-        <v>15.28376729048007</v>
+        <v>13.01715176715177</v>
       </c>
       <c r="C51">
-        <v>86.96930892369906</v>
+        <v>80.44478741703618</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>2822</v>
@@ -3858,13 +3858,13 @@
         <v>276</v>
       </c>
       <c r="B52">
-        <v>12.42238648363252</v>
+        <v>10.8125</v>
       </c>
       <c r="C52">
-        <v>44.00154928606196</v>
+        <v>41.26161835683722</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>967</v>
@@ -3875,13 +3875,13 @@
         <v>234</v>
       </c>
       <c r="B53">
-        <v>10.14741086545896</v>
+        <v>9.042349822088886</v>
       </c>
       <c r="C53">
-        <v>54.93276697547322</v>
+        <v>51.9516936237954</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>3793</v>
@@ -3892,13 +3892,13 @@
         <v>277</v>
       </c>
       <c r="B54">
-        <v>9.516735822959889</v>
+        <v>6.991058727900834</v>
       </c>
       <c r="C54">
-        <v>44.37895556042024</v>
+        <v>38.26758165109252</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>1558</v>
@@ -3909,13 +3909,13 @@
         <v>210</v>
       </c>
       <c r="B55">
-        <v>10.8966794608587</v>
+        <v>8.74607297021368</v>
       </c>
       <c r="C55">
-        <v>67.4617615969554</v>
+        <v>60.59425803399139</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>7816</v>
@@ -3926,13 +3926,13 @@
         <v>225</v>
       </c>
       <c r="B56">
-        <v>14.22430230542555</v>
+        <v>11.29369666941921</v>
       </c>
       <c r="C56">
-        <v>97.05876524038948</v>
+        <v>86.67393490105874</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>4656</v>
@@ -3943,13 +3943,13 @@
         <v>228</v>
       </c>
       <c r="B57">
-        <v>8.115911377939998</v>
+        <v>6.879141849303187</v>
       </c>
       <c r="C57">
-        <v>47.04185924985337</v>
+        <v>43.40753574538401</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>4343</v>
@@ -3960,13 +3960,13 @@
         <v>278</v>
       </c>
       <c r="B58">
-        <v>9.38591046299052</v>
+        <v>8.724894281310517</v>
       </c>
       <c r="C58">
-        <v>61.02756294684892</v>
+        <v>58.88825833533246</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>3059</v>
@@ -3977,13 +3977,13 @@
         <v>233</v>
       </c>
       <c r="B59">
-        <v>11.4717173001144</v>
+        <v>9.85132627442419</v>
       </c>
       <c r="C59">
-        <v>65.4735833540404</v>
+        <v>60.80466873891598</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>3888</v>
@@ -3994,13 +3994,13 @@
         <v>279</v>
       </c>
       <c r="B60">
-        <v>12.13011853448276</v>
+        <v>10.94748358862144</v>
       </c>
       <c r="C60">
-        <v>62.87700284628649</v>
+        <v>59.84118933292825</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>2462</v>
@@ -4011,13 +4011,13 @@
         <v>280</v>
       </c>
       <c r="B61">
-        <v>11.87787881363134</v>
+        <v>10.56839319470699</v>
       </c>
       <c r="C61">
-        <v>64.93891238425624</v>
+        <v>61.36737083822424</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>3042</v>
@@ -4028,13 +4028,13 @@
         <v>207</v>
       </c>
       <c r="B62">
-        <v>11.45058901557022</v>
+        <v>9.055849735238285</v>
       </c>
       <c r="C62">
-        <v>107.6205413709374</v>
+        <v>95.82039122257629</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>14737</v>
@@ -4045,13 +4045,13 @@
         <v>281</v>
       </c>
       <c r="B63">
-        <v>9.398366606170599</v>
+        <v>8.168901408450704</v>
       </c>
       <c r="C63">
-        <v>46.49110837814968</v>
+        <v>43.45900513100147</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>1936</v>
@@ -4062,13 +4062,13 @@
         <v>214</v>
       </c>
       <c r="B64">
-        <v>10.33567272644948</v>
+        <v>9.493584811495353</v>
       </c>
       <c r="C64">
-        <v>66.60178035866116</v>
+        <v>63.89352383405392</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>6264</v>
@@ -4079,13 +4079,13 @@
         <v>217</v>
       </c>
       <c r="B65">
-        <v>12.41695157827781</v>
+        <v>9.737980919124524</v>
       </c>
       <c r="C65">
-        <v>76.84622540458068</v>
+        <v>68.24418168231317</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>5771</v>
@@ -4096,13 +4096,13 @@
         <v>211</v>
       </c>
       <c r="B66">
-        <v>8.933800609640588</v>
+        <v>8.30572544750072</v>
       </c>
       <c r="C66">
-        <v>71.27500326051536</v>
+        <v>68.76181885262228</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>7673</v>
@@ -4113,13 +4113,13 @@
         <v>282</v>
       </c>
       <c r="B67">
-        <v>11.18176364727055</v>
+        <v>10.4841107227512</v>
       </c>
       <c r="C67">
-        <v>66.0105919525773</v>
+        <v>63.97526844422504</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>3255</v>
@@ -4130,13 +4130,13 @@
         <v>283</v>
       </c>
       <c r="B68">
-        <v>12.4882777276826</v>
+        <v>9.974432841195535</v>
       </c>
       <c r="C68">
-        <v>52.05090726000773</v>
+        <v>46.78607743036329</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1379</v>
@@ -4147,13 +4147,13 @@
         <v>213</v>
       </c>
       <c r="B69">
-        <v>9.78240176276166</v>
+        <v>7.528029301047919</v>
       </c>
       <c r="C69">
-        <v>68.42931211898714</v>
+        <v>60.1699484519833</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>7312</v>
@@ -4164,13 +4164,13 @@
         <v>284</v>
       </c>
       <c r="B70">
-        <v>9.056099456099457</v>
+        <v>7.492896174863388</v>
       </c>
       <c r="C70">
-        <v>45.27085622343004</v>
+        <v>41.32044210370116</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>1732</v>
@@ -4181,13 +4181,13 @@
         <v>224</v>
       </c>
       <c r="B71">
-        <v>12.8010258857211</v>
+        <v>11.18755212677231</v>
       </c>
       <c r="C71">
-        <v>87.3460701535511</v>
+        <v>81.76593155273331</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>4657</v>
@@ -4198,13 +4198,13 @@
         <v>216</v>
       </c>
       <c r="B72">
-        <v>11.66229573010016</v>
+        <v>9.456454370592008</v>
       </c>
       <c r="C72">
-        <v>75.0443806156371</v>
+        <v>67.729416985608</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>5801</v>
@@ -4215,13 +4215,13 @@
         <v>285</v>
       </c>
       <c r="B73">
-        <v>9.101251840942563</v>
+        <v>7.745665343639022</v>
       </c>
       <c r="C73">
-        <v>57.72632310235613</v>
+        <v>53.35231087389625</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>3274</v>
@@ -4232,13 +4232,13 @@
         <v>286</v>
       </c>
       <c r="B74">
-        <v>9.943563009972802</v>
+        <v>8.811649510419281</v>
       </c>
       <c r="C74">
-        <v>55.44819152178077</v>
+        <v>52.29222384414636</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>2948</v>
@@ -4249,13 +4249,13 @@
         <v>231</v>
       </c>
       <c r="B75">
-        <v>8.933723270918</v>
+        <v>7.961009950585527</v>
       </c>
       <c r="C75">
-        <v>63.657555617809</v>
+        <v>60.15643314662309</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>4090</v>
@@ -4266,13 +4266,13 @@
         <v>236</v>
       </c>
       <c r="B76">
-        <v>10.10623883263847</v>
+        <v>8.322930717351317</v>
       </c>
       <c r="C76">
-        <v>57.04634052595068</v>
+        <v>51.91198688629434</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>3600</v>
@@ -4283,13 +4283,13 @@
         <v>209</v>
       </c>
       <c r="B77">
-        <v>9.564026194327193</v>
+        <v>8.181920961155546</v>
       </c>
       <c r="C77">
-        <v>91.97215075664522</v>
+        <v>85.13380763982862</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>12609</v>
@@ -4300,13 +4300,13 @@
         <v>287</v>
       </c>
       <c r="B78">
-        <v>11.19682086086801</v>
+        <v>9.153307052124397</v>
       </c>
       <c r="C78">
-        <v>52.08288784960414</v>
+        <v>47.28832111218506</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>2270</v>
@@ -4317,13 +4317,13 @@
         <v>235</v>
       </c>
       <c r="B79">
-        <v>10.58789672751192</v>
+        <v>8.27499785793848</v>
       </c>
       <c r="C79">
-        <v>62.69203184362623</v>
+        <v>55.595253166619</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>3761</v>
@@ -4334,13 +4334,13 @@
         <v>204</v>
       </c>
       <c r="B80">
-        <v>9.86854890631002</v>
+        <v>8.999351210005674</v>
       </c>
       <c r="C80">
-        <v>87.59028514013393</v>
+        <v>83.69075501336224</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>16276</v>
@@ -4351,13 +4351,13 @@
         <v>206</v>
       </c>
       <c r="B81">
-        <v>8.437069151938058</v>
+        <v>7.760585860938076</v>
       </c>
       <c r="C81">
-        <v>74.60239064652026</v>
+        <v>71.58576626547877</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>14963</v>
@@ -4368,13 +4368,13 @@
         <v>288</v>
       </c>
       <c r="B82">
-        <v>10.71608832807571</v>
+        <v>8.4925</v>
       </c>
       <c r="C82">
-        <v>37.93067559930299</v>
+        <v>34.04187104978919</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>820</v>
@@ -4385,13 +4385,13 @@
         <v>289</v>
       </c>
       <c r="B83">
-        <v>11.04968944099379</v>
+        <v>6.868725868725869</v>
       </c>
       <c r="C83">
-        <v>35.930279925544</v>
+        <v>28.80000112238482</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>419</v>
@@ -4402,13 +4402,13 @@
         <v>290</v>
       </c>
       <c r="B84">
-        <v>15.46067415730337</v>
+        <v>11.86206896551724</v>
       </c>
       <c r="C84">
-        <v>24.28666683396435</v>
+        <v>22.23545799402158</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>159</v>
@@ -4419,13 +4419,13 @@
         <v>291</v>
       </c>
       <c r="B85">
-        <v>35.53571428571428</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="C85">
-        <v>92.89681659141249</v>
+        <v>81.66634250951508</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>672</v>
@@ -4436,13 +4436,13 @@
         <v>292</v>
       </c>
       <c r="B86">
-        <v>31.6551724137931</v>
+        <v>27.81818181818182</v>
       </c>
       <c r="C86">
-        <v>65.19436646458965</v>
+        <v>61.87964858570958</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>302</v>
@@ -4453,13 +4453,13 @@
         <v>293</v>
       </c>
       <c r="B87">
-        <v>34.23214285714285</v>
+        <v>25.56</v>
       </c>
       <c r="C87">
-        <v>90.68226068309833</v>
+        <v>79.60243103716762</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>534</v>
@@ -4470,13 +4470,13 @@
         <v>294</v>
       </c>
       <c r="B88">
-        <v>8.912621359223301</v>
+        <v>6.60431654676259</v>
       </c>
       <c r="C88">
-        <v>23.13011227905087</v>
+        <v>20.26799386804979</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>211</v>
@@ -4487,13 +4487,13 @@
         <v>215</v>
       </c>
       <c r="B89">
-        <v>18.28257231651924</v>
+        <v>14.79798761609907</v>
       </c>
       <c r="C89">
-        <v>120.3710900942148</v>
+        <v>108.531331847369</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>6144</v>
@@ -4504,13 +4504,13 @@
         <v>295</v>
       </c>
       <c r="B90">
-        <v>23.89655172413793</v>
+        <v>18.59268292682927</v>
       </c>
       <c r="C90">
-        <v>93.85804191488953</v>
+        <v>83.35564624253396</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>1165</v>
@@ -4521,13 +4521,13 @@
         <v>296</v>
       </c>
       <c r="B91">
-        <v>51.12</v>
+        <v>39.9375</v>
       </c>
       <c r="C91">
-        <v>153.3955453503567</v>
+        <v>136.6672288868582</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>647</v>
@@ -4538,13 +4538,13 @@
         <v>205</v>
       </c>
       <c r="B92">
-        <v>27.31456077015644</v>
+        <v>23.0956450956451</v>
       </c>
       <c r="C92">
-        <v>284.8263954732336</v>
+        <v>262.0887660309505</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>16112</v>
@@ -4555,13 +4555,13 @@
         <v>297</v>
       </c>
       <c r="B93">
-        <v>9.888426166926948</v>
+        <v>8.550615184555367</v>
       </c>
       <c r="C93">
-        <v>58.18494910650337</v>
+        <v>54.21144133853911</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>2870</v>
@@ -4572,13 +4572,13 @@
         <v>298</v>
       </c>
       <c r="B94">
-        <v>7.380671867537016</v>
+        <v>6.519195612431444</v>
       </c>
       <c r="C94">
-        <v>30.9744265112591</v>
+        <v>29.20672506463627</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>799</v>
@@ -4589,13 +4589,13 @@
         <v>299</v>
       </c>
       <c r="B95">
-        <v>4.955566855537798</v>
+        <v>4.395888822063752</v>
       </c>
       <c r="C95">
-        <v>34.84445265315352</v>
+        <v>32.85528370836403</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>3502</v>
@@ -4606,13 +4606,13 @@
         <v>300</v>
       </c>
       <c r="B96">
-        <v>6.214723926380368</v>
+        <v>5.388297872340425</v>
       </c>
       <c r="C96">
-        <v>27.17995410821268</v>
+        <v>25.38628353539909</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>342</v>

--- a/top_workers_2018.xlsx
+++ b/top_workers_2018.xlsx
@@ -728,7 +728,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>mean</t>
+    <t>median</t>
   </si>
   <si>
     <t>std</t>
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="B4">
-        <v>7.720147722609766</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>24.61117282643761</v>
@@ -3059,7 +3059,7 @@
         <v>212</v>
       </c>
       <c r="B5">
-        <v>9.564071545839454</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>74.05573367141302</v>
@@ -3076,7 +3076,7 @@
         <v>242</v>
       </c>
       <c r="B6">
-        <v>5.342059166991047</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>31.94259550344402</v>
@@ -3093,7 +3093,7 @@
         <v>243</v>
       </c>
       <c r="B7">
-        <v>6.836151822623074</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>28.37738802640231</v>
@@ -3110,7 +3110,7 @@
         <v>244</v>
       </c>
       <c r="B8">
-        <v>10.29502572898799</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>64.41877042646821</v>
@@ -3127,7 +3127,7 @@
         <v>245</v>
       </c>
       <c r="B9">
-        <v>4.597359735973598</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>27.63077174294595</v>
@@ -3144,7 +3144,7 @@
         <v>246</v>
       </c>
       <c r="B10">
-        <v>7.090889603429797</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>34.21481259800598</v>
@@ -3161,7 +3161,7 @@
         <v>247</v>
       </c>
       <c r="B11">
-        <v>6.925227963525836</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>33.35109444429535</v>
@@ -3178,7 +3178,7 @@
         <v>248</v>
       </c>
       <c r="B12">
-        <v>9.557934508816121</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>44.85919688497517</v>
@@ -3195,7 +3195,7 @@
         <v>249</v>
       </c>
       <c r="B13">
-        <v>6.435973154362416</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>38.88711379577644</v>
@@ -3212,7 +3212,7 @@
         <v>250</v>
       </c>
       <c r="B14">
-        <v>9.939952200756821</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>68.74708442174172</v>
@@ -3229,7 +3229,7 @@
         <v>220</v>
       </c>
       <c r="B15">
-        <v>10.56776786835825</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>86.05059696098033</v>
@@ -3246,7 +3246,7 @@
         <v>251</v>
       </c>
       <c r="B16">
-        <v>15.92429324389075</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>96.71976756020766</v>
@@ -3263,7 +3263,7 @@
         <v>252</v>
       </c>
       <c r="B17">
-        <v>7.853844589096827</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>57.76171502984786</v>
@@ -3280,7 +3280,7 @@
         <v>253</v>
       </c>
       <c r="B18">
-        <v>7.655293799079339</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>36.40643549202009</v>
@@ -3297,7 +3297,7 @@
         <v>221</v>
       </c>
       <c r="B19">
-        <v>9.660401245140823</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>64.80706176662127</v>
@@ -3314,7 +3314,7 @@
         <v>254</v>
       </c>
       <c r="B20">
-        <v>9.576433121019109</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>55.20472954849151</v>
@@ -3331,7 +3331,7 @@
         <v>255</v>
       </c>
       <c r="B21">
-        <v>9.016766678432758</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>55.58805087841852</v>
@@ -3348,7 +3348,7 @@
         <v>256</v>
       </c>
       <c r="B22">
-        <v>7.822248851607749</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>36.53954288797592</v>
@@ -3365,7 +3365,7 @@
         <v>257</v>
       </c>
       <c r="B23">
-        <v>8.326805918189731</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>63.25968195647535</v>
@@ -3382,7 +3382,7 @@
         <v>258</v>
       </c>
       <c r="B24">
-        <v>10.17763157894737</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>65.8127196586987</v>
@@ -3399,7 +3399,7 @@
         <v>259</v>
       </c>
       <c r="B25">
-        <v>8.525188831939573</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>52.59013705111021</v>
@@ -3416,7 +3416,7 @@
         <v>208</v>
       </c>
       <c r="B26">
-        <v>9.241577718478986</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>74.22651949435618</v>
@@ -3433,7 +3433,7 @@
         <v>260</v>
       </c>
       <c r="B27">
-        <v>8.187920964890688</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>60.4234179295923</v>
@@ -3450,7 +3450,7 @@
         <v>261</v>
       </c>
       <c r="B28">
-        <v>6.526746248114131</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>42.41021288915258</v>
@@ -3467,7 +3467,7 @@
         <v>223</v>
       </c>
       <c r="B29">
-        <v>10.00793059632826</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>58.75811113132429</v>
@@ -3484,7 +3484,7 @@
         <v>262</v>
       </c>
       <c r="B30">
-        <v>7.43238911988912</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>43.47206104846294</v>
@@ -3501,7 +3501,7 @@
         <v>263</v>
       </c>
       <c r="B31">
-        <v>8.971933912306715</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>53.18871157022783</v>
@@ -3518,7 +3518,7 @@
         <v>222</v>
       </c>
       <c r="B32">
-        <v>8.505314865517796</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>59.37422330665724</v>
@@ -3535,7 +3535,7 @@
         <v>264</v>
       </c>
       <c r="B33">
-        <v>7.418396226415094</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>32.8607004122337</v>
@@ -3552,7 +3552,7 @@
         <v>265</v>
       </c>
       <c r="B34">
-        <v>11.09471037914935</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>69.19160314554968</v>
@@ -3569,7 +3569,7 @@
         <v>266</v>
       </c>
       <c r="B35">
-        <v>10.75227077977721</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>66.95992384034523</v>
@@ -3586,7 +3586,7 @@
         <v>219</v>
       </c>
       <c r="B36">
-        <v>10.92995839112344</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>70.48298427721058</v>
@@ -3603,7 +3603,7 @@
         <v>230</v>
       </c>
       <c r="B37">
-        <v>9.776946169346548</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>71.2186642047435</v>
@@ -3620,7 +3620,7 @@
         <v>267</v>
       </c>
       <c r="B38">
-        <v>7.081265845708077</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>49.52856808764033</v>
@@ -3637,7 +3637,7 @@
         <v>232</v>
       </c>
       <c r="B39">
-        <v>9.414312145253849</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>55.82161656507999</v>
@@ -3654,7 +3654,7 @@
         <v>268</v>
       </c>
       <c r="B40">
-        <v>6.646932599724897</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>30.72583421518481</v>
@@ -3671,7 +3671,7 @@
         <v>229</v>
       </c>
       <c r="B41">
-        <v>8.436681347594806</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>64.05122121627768</v>
@@ -3688,7 +3688,7 @@
         <v>226</v>
       </c>
       <c r="B42">
-        <v>5.616234050432616</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>39.72315839540256</v>
@@ -3705,7 +3705,7 @@
         <v>269</v>
       </c>
       <c r="B43">
-        <v>10.40968576709797</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>55.56797887175743</v>
@@ -3722,7 +3722,7 @@
         <v>270</v>
       </c>
       <c r="B44">
-        <v>7.143416161220896</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>35.4932310074623</v>
@@ -3739,7 +3739,7 @@
         <v>227</v>
       </c>
       <c r="B45">
-        <v>11.46423950546291</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>69.98613250798171</v>
@@ -3756,7 +3756,7 @@
         <v>271</v>
       </c>
       <c r="B46">
-        <v>8.653249116796918</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>54.28952462204994</v>
@@ -3773,7 +3773,7 @@
         <v>272</v>
       </c>
       <c r="B47">
-        <v>9.939400975156722</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>49.71291594974849</v>
@@ -3790,7 +3790,7 @@
         <v>273</v>
       </c>
       <c r="B48">
-        <v>11.13912149258117</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>72.71953219872276</v>
@@ -3807,7 +3807,7 @@
         <v>218</v>
       </c>
       <c r="B49">
-        <v>12.1810287241149</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>90.19891148558715</v>
@@ -3824,7 +3824,7 @@
         <v>274</v>
       </c>
       <c r="B50">
-        <v>12.57242635894321</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>69.3757847299612</v>
@@ -3841,7 +3841,7 @@
         <v>275</v>
       </c>
       <c r="B51">
-        <v>13.01715176715177</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>80.44478741703618</v>
@@ -3858,7 +3858,7 @@
         <v>276</v>
       </c>
       <c r="B52">
-        <v>10.8125</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>41.26161835683722</v>
@@ -3875,7 +3875,7 @@
         <v>234</v>
       </c>
       <c r="B53">
-        <v>9.042349822088886</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>51.9516936237954</v>
@@ -3892,7 +3892,7 @@
         <v>277</v>
       </c>
       <c r="B54">
-        <v>6.991058727900834</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>38.26758165109252</v>
@@ -3909,7 +3909,7 @@
         <v>210</v>
       </c>
       <c r="B55">
-        <v>8.74607297021368</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>60.59425803399139</v>
@@ -3926,7 +3926,7 @@
         <v>225</v>
       </c>
       <c r="B56">
-        <v>11.29369666941921</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>86.67393490105874</v>
@@ -3943,7 +3943,7 @@
         <v>228</v>
       </c>
       <c r="B57">
-        <v>6.879141849303187</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>43.40753574538401</v>
@@ -3960,7 +3960,7 @@
         <v>278</v>
       </c>
       <c r="B58">
-        <v>8.724894281310517</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>58.88825833533246</v>
@@ -3977,7 +3977,7 @@
         <v>233</v>
       </c>
       <c r="B59">
-        <v>9.85132627442419</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>60.80466873891598</v>
@@ -3994,7 +3994,7 @@
         <v>279</v>
       </c>
       <c r="B60">
-        <v>10.94748358862144</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>59.84118933292825</v>
@@ -4011,7 +4011,7 @@
         <v>280</v>
       </c>
       <c r="B61">
-        <v>10.56839319470699</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>61.36737083822424</v>
@@ -4028,7 +4028,7 @@
         <v>207</v>
       </c>
       <c r="B62">
-        <v>9.055849735238285</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>95.82039122257629</v>
@@ -4045,7 +4045,7 @@
         <v>281</v>
       </c>
       <c r="B63">
-        <v>8.168901408450704</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>43.45900513100147</v>
@@ -4062,7 +4062,7 @@
         <v>214</v>
       </c>
       <c r="B64">
-        <v>9.493584811495353</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>63.89352383405392</v>
@@ -4079,7 +4079,7 @@
         <v>217</v>
       </c>
       <c r="B65">
-        <v>9.737980919124524</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>68.24418168231317</v>
@@ -4096,7 +4096,7 @@
         <v>211</v>
       </c>
       <c r="B66">
-        <v>8.30572544750072</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>68.76181885262228</v>
@@ -4113,7 +4113,7 @@
         <v>282</v>
       </c>
       <c r="B67">
-        <v>10.4841107227512</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>63.97526844422504</v>
@@ -4130,7 +4130,7 @@
         <v>283</v>
       </c>
       <c r="B68">
-        <v>9.974432841195535</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>46.78607743036329</v>
@@ -4147,7 +4147,7 @@
         <v>213</v>
       </c>
       <c r="B69">
-        <v>7.528029301047919</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>60.1699484519833</v>
@@ -4164,7 +4164,7 @@
         <v>284</v>
       </c>
       <c r="B70">
-        <v>7.492896174863388</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>41.32044210370116</v>
@@ -4181,7 +4181,7 @@
         <v>224</v>
       </c>
       <c r="B71">
-        <v>11.18755212677231</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>81.76593155273331</v>
@@ -4198,7 +4198,7 @@
         <v>216</v>
       </c>
       <c r="B72">
-        <v>9.456454370592008</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>67.729416985608</v>
@@ -4215,7 +4215,7 @@
         <v>285</v>
       </c>
       <c r="B73">
-        <v>7.745665343639022</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>53.35231087389625</v>
@@ -4232,7 +4232,7 @@
         <v>286</v>
       </c>
       <c r="B74">
-        <v>8.811649510419281</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>52.29222384414636</v>
@@ -4249,7 +4249,7 @@
         <v>231</v>
       </c>
       <c r="B75">
-        <v>7.961009950585527</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>60.15643314662309</v>
@@ -4266,7 +4266,7 @@
         <v>236</v>
       </c>
       <c r="B76">
-        <v>8.322930717351317</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>51.91198688629434</v>
@@ -4283,7 +4283,7 @@
         <v>209</v>
       </c>
       <c r="B77">
-        <v>8.181920961155546</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>85.13380763982862</v>
@@ -4300,7 +4300,7 @@
         <v>287</v>
       </c>
       <c r="B78">
-        <v>9.153307052124397</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>47.28832111218506</v>
@@ -4317,7 +4317,7 @@
         <v>235</v>
       </c>
       <c r="B79">
-        <v>8.27499785793848</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>55.595253166619</v>
@@ -4334,7 +4334,7 @@
         <v>204</v>
       </c>
       <c r="B80">
-        <v>8.999351210005674</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>83.69075501336224</v>
@@ -4351,7 +4351,7 @@
         <v>206</v>
       </c>
       <c r="B81">
-        <v>7.760585860938076</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>71.58576626547877</v>
@@ -4368,7 +4368,7 @@
         <v>288</v>
       </c>
       <c r="B82">
-        <v>8.4925</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>34.04187104978919</v>
@@ -4385,7 +4385,7 @@
         <v>289</v>
       </c>
       <c r="B83">
-        <v>6.868725868725869</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>28.80000112238482</v>
@@ -4402,7 +4402,7 @@
         <v>290</v>
       </c>
       <c r="B84">
-        <v>11.86206896551724</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>22.23545799402158</v>
@@ -4419,7 +4419,7 @@
         <v>291</v>
       </c>
       <c r="B85">
-        <v>26.53333333333333</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>81.66634250951508</v>
@@ -4436,7 +4436,7 @@
         <v>292</v>
       </c>
       <c r="B86">
-        <v>27.81818181818182</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>61.87964858570958</v>
@@ -4453,7 +4453,7 @@
         <v>293</v>
       </c>
       <c r="B87">
-        <v>25.56</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>79.60243103716762</v>
@@ -4470,7 +4470,7 @@
         <v>294</v>
       </c>
       <c r="B88">
-        <v>6.60431654676259</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>20.26799386804979</v>
@@ -4487,7 +4487,7 @@
         <v>215</v>
       </c>
       <c r="B89">
-        <v>14.79798761609907</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>108.531331847369</v>
@@ -4504,7 +4504,7 @@
         <v>295</v>
       </c>
       <c r="B90">
-        <v>18.59268292682927</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>83.35564624253396</v>
@@ -4521,7 +4521,7 @@
         <v>296</v>
       </c>
       <c r="B91">
-        <v>39.9375</v>
+        <v>2.5</v>
       </c>
       <c r="C91">
         <v>136.6672288868582</v>
@@ -4538,7 +4538,7 @@
         <v>205</v>
       </c>
       <c r="B92">
-        <v>23.0956450956451</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>262.0887660309505</v>
@@ -4555,7 +4555,7 @@
         <v>297</v>
       </c>
       <c r="B93">
-        <v>8.550615184555367</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>54.21144133853911</v>
@@ -4572,7 +4572,7 @@
         <v>298</v>
       </c>
       <c r="B94">
-        <v>6.519195612431444</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>29.20672506463627</v>
@@ -4589,7 +4589,7 @@
         <v>299</v>
       </c>
       <c r="B95">
-        <v>4.395888822063752</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>32.85528370836403</v>
@@ -4606,7 +4606,7 @@
         <v>300</v>
       </c>
       <c r="B96">
-        <v>5.388297872340425</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>25.38628353539909</v>
